--- a/hardware/parts/Communication Protocols.xlsx
+++ b/hardware/parts/Communication Protocols.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mois\Documents\GitHub\Mercury\hardware\parts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE99C125-8E28-44A2-BBA3-13F878D842D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5AE4BA-EB7F-44C7-938E-7F25A9866C4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11976" yWindow="780" windowWidth="17280" windowHeight="8964" xr2:uid="{DAA50E79-1EB3-41D5-95B3-BA722ED28DD8}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{DAA50E79-1EB3-41D5-95B3-BA722ED28DD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -432,7 +432,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
